--- a/silence_labels_eredeti.xlsx
+++ b/silence_labels_eredeti.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="306">
   <si>
     <t>USA</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>2010@eijiyamamoto.com</t>
-  </si>
-  <si>
-    <t>Matteo Capone</t>
   </si>
   <si>
     <t>Matteo</t>
@@ -983,18 +980,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1608,19 +1599,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2561,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K18" sqref="J18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -2576,1045 +2561,1037 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="2">
         <v>2012</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="2">
         <v>2020</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1">
         <v>2001</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="1">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1">
-      <c r="A8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="D9" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>198</v>
+        <v>221</v>
+      </c>
+      <c r="F9" t="s">
+        <v>197</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
+      <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="D10" s="1">
         <v>2021</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" t="s">
-        <v>198</v>
+        <v>279</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D11" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="1">
         <v>2021</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2012</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>218</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
+      <c r="A13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="D13" s="1">
         <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" t="s">
-        <v>198</v>
+        <v>279</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="D14" s="1">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D15" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="D16" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F16" t="s">
-        <v>198</v>
+        <v>255</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D18" s="1">
         <v>2021</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>198</v>
+        <v>236</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>161</v>
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D19" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" t="s">
-        <v>198</v>
+        <v>213</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="D21" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" t="s">
-        <v>198</v>
+        <v>288</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="D22" s="1">
         <v>2020</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>198</v>
+        <v>232</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D23" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" t="s">
-        <v>198</v>
+        <v>245</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="D25" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F25" t="s">
-        <v>198</v>
+        <v>249</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D26" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D28" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>198</v>
+        <v>240</v>
+      </c>
+      <c r="F28" t="s">
+        <v>197</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
+      <c r="A29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1">
         <v>2018</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="D30" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F30" t="s">
-        <v>198</v>
+        <v>279</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D31" s="1">
         <v>2022</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>110</v>
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="D32" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D33" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D34" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D35" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="D36" s="1">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
+      </c>
+      <c r="F36" t="s">
+        <v>197</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="D38" s="1">
         <v>2021</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" t="s">
-        <v>198</v>
+        <v>301</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="D39" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D40" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="1">
         <v>2020</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2021</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" t="s">
-        <v>198</v>
+        <v>236</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="D42" s="1">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="D43" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="D44" s="1">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="F44" t="s">
+        <v>197</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>7</v>
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="D45" s="1">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" t="s">
-        <v>198</v>
+        <v>279</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3644,13 +3621,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D1" t="str">
         <f>A1&amp;";"&amp;B1&amp;";"&amp;C1</f>
@@ -3659,13 +3636,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D46" si="0">A2&amp;";"&amp;B2&amp;";"&amp;C2</f>
@@ -3674,13 +3651,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -3689,13 +3666,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -3704,13 +3681,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3719,13 +3696,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -3734,13 +3711,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -3749,13 +3726,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -3764,13 +3741,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -3794,13 +3771,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -3809,13 +3786,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -3824,13 +3801,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -3839,13 +3816,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3854,13 +3831,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -3884,13 +3861,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -3899,13 +3876,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -3914,13 +3891,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -3959,13 +3936,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -3974,13 +3951,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -3989,13 +3966,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -4019,13 +3996,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -4034,13 +4011,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -4049,13 +4026,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -4079,13 +4056,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -4109,13 +4086,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -4154,13 +4131,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -4169,13 +4146,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -4184,13 +4161,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -4199,13 +4176,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -4214,13 +4191,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -4229,13 +4206,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -4244,13 +4221,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -4274,13 +4251,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -4319,13 +4296,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
